--- a/data/MauImport/DuKienThueCuaNam.xlsx
+++ b/data/MauImport/DuKienThueCuaNam.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="630" yWindow="525" windowWidth="20730" windowHeight="9405"/>
   </bookViews>
   <sheets>
-    <sheet name="Topica" sheetId="1" r:id="rId1"/>
+    <sheet name="DuKienThueCuaNam" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>STT</t>
   </si>
@@ -34,16 +34,28 @@
     <t>Tiểu Mục  (*)</t>
   </si>
   <si>
-    <t>Bậc môn bài</t>
-  </si>
-  <si>
-    <t>Ngày phải nộp</t>
-  </si>
-  <si>
-    <t>Số tiền</t>
-  </si>
-  <si>
     <t>Dự kiến thuế của năm - **/****</t>
+  </si>
+  <si>
+    <t>Doanh thu chịu thuế (*)</t>
+  </si>
+  <si>
+    <t>Tỉ lệ tính thuế (*)</t>
+  </si>
+  <si>
+    <t>Thuế suất (*)</t>
+  </si>
+  <si>
+    <t>Tên gọi</t>
+  </si>
+  <si>
+    <t>Sản lượng</t>
+  </si>
+  <si>
+    <t>Giá tính thuế</t>
+  </si>
+  <si>
+    <t>Số tiền (*)</t>
   </si>
 </sst>
 </file>
@@ -65,7 +77,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -123,15 +135,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -154,6 +163,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Accent3" xfId="1" builtinId="37"/>
@@ -456,93 +470,120 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:I3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.140625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" style="8" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23" style="13" customWidth="1"/>
+    <col min="8" max="8" width="23" style="2" customWidth="1"/>
+    <col min="9" max="9" width="23" style="13" customWidth="1"/>
+    <col min="10" max="11" width="23" style="6" customWidth="1"/>
+    <col min="12" max="12" width="17.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
     </row>
-    <row r="4" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="E4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="F4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="G4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="1">
-    <mergeCell ref="A1:I3"/>
+    <mergeCell ref="A1:M3"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/MauImport/DuKienThueCuaNam.xlsx
+++ b/data/MauImport/DuKienThueCuaNam.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="630" yWindow="525" windowWidth="20730" windowHeight="9405"/>
@@ -77,7 +77,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -157,17 +157,17 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Accent3" xfId="1" builtinId="37"/>
@@ -472,8 +472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,61 +483,61 @@
     <col min="3" max="3" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" style="4" customWidth="1"/>
     <col min="5" max="5" width="22.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23" style="13" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23" style="11" customWidth="1"/>
     <col min="8" max="8" width="23" style="2" customWidth="1"/>
-    <col min="9" max="9" width="23" style="13" customWidth="1"/>
+    <col min="9" max="9" width="23" style="11" customWidth="1"/>
     <col min="10" max="11" width="23" style="6" customWidth="1"/>
     <col min="12" max="12" width="17.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
     </row>
     <row r="4" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -555,7 +555,7 @@
       <c r="E4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="9" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="7" t="s">
